--- a/DATA_goal/Junction_Flooding_415.xlsx
+++ b/DATA_goal/Junction_Flooding_415.xlsx
@@ -460,7 +460,7 @@
     <col width="6" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="5" customWidth="1" min="19" max="19"/>
+    <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
@@ -655,103 +655,103 @@
         <v>44782.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.86</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.49</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="U2" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="X2" s="4" t="n">
         <v>0.31</v>
       </c>
-      <c r="V2" s="4" t="n">
+      <c r="Y2" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="W2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.71</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44782.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.69</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.37</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.75</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.94</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.15</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.33</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.21</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.73</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.77</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.18</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.29</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.69</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44782.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.95</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.6</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.83</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.37</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.84</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.21</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.1</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44782.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>32.47</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.34</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.1</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.14</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.75</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.25</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.23</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.9</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_415.xlsx
+++ b/DATA_goal/Junction_Flooding_415.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.84027777778</v>
+        <v>45096.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.86</v>
+        <v>22.58</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>2.49</v>
+        <v>15.542</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>4.221</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.32</v>
+        <v>47.493</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.86</v>
+        <v>39.284</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>17.769</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.49</v>
+        <v>58.8</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.7</v>
+        <v>27.341</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.38</v>
+        <v>11.61</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.37</v>
+        <v>17.881</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3.98</v>
+        <v>18.828</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.94</v>
+        <v>19.728</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.14</v>
+        <v>5.673</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.72</v>
+        <v>17.67</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.57</v>
+        <v>24.849</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.64</v>
+        <v>14.79</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.96</v>
+        <v>3.779</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>7.97</v>
+        <v>261.617</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.14</v>
+        <v>49.202</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1</v>
+        <v>16.31</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.92</v>
+        <v>32.642</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.31</v>
+        <v>17.025</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.1</v>
+        <v>2.109</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.93</v>
+        <v>29.266</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.72</v>
+        <v>14.407</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.49</v>
+        <v>12.944</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>15.145</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.97</v>
+        <v>19.485</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.17</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.71</v>
+        <v>51.902</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.1</v>
+        <v>9.071</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.61</v>
+        <v>20.391</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.84722222222</v>
+        <v>45096.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.34</v>
+        <v>18.737</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.69</v>
+        <v>13.389</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.01</v>
+        <v>1.895</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.37</v>
+        <v>40.114</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.75</v>
+        <v>33.19</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.44</v>
+        <v>14.745</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.94</v>
+        <v>57.815</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.24</v>
+        <v>22.687</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.62</v>
+        <v>9.875</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.68</v>
+        <v>14.899</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.15</v>
+        <v>16.13</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.63</v>
+        <v>16.865</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.63</v>
+        <v>4.711</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.86</v>
+        <v>14.663</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.82</v>
+        <v>20.741</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.87</v>
+        <v>12.465</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.53</v>
+        <v>1.643</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>1.129</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>9.33</v>
+        <v>215.868</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.21</v>
+        <v>41.042</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.2</v>
+        <v>13.534</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.73</v>
+        <v>27.346</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.76</v>
+        <v>14.562</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.765</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.77</v>
+        <v>27.828</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.89</v>
+        <v>11.955</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.59</v>
+        <v>10.749</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.96</v>
+        <v>12.598</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.18</v>
+        <v>16.826</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.29</v>
+        <v>52.266</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.69</v>
+        <v>7.547</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.97</v>
+        <v>16.921</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.85416666666</v>
+        <v>45096.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.95</v>
+        <v>6.726</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.09</v>
+        <v>4.6</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.999</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.6</v>
+        <v>14.212</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.83</v>
+        <v>11.767</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.3</v>
+        <v>5.294</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.83</v>
+        <v>25.216</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.144</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.43</v>
+        <v>3.477</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.42</v>
+        <v>5.212</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.37</v>
+        <v>5.786</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.08</v>
+        <v>5.934</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.39</v>
+        <v>1.696</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.263</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.29</v>
+        <v>7.407</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.6</v>
+        <v>4.638</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.35</v>
+        <v>1.001</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.525</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>3.84</v>
+        <v>72.821</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.21</v>
+        <v>14.926</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.83</v>
+        <v>4.858</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.26</v>
+        <v>9.797000000000001</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.309</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.64</v>
+        <v>11.518</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.6</v>
+        <v>4.291</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.958</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.66</v>
+        <v>4.62</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.8</v>
+        <v>5.989</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.1</v>
+        <v>22.945</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.1</v>
+        <v>2.635</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.075</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.86111111111</v>
+        <v>45096.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.38</v>
+        <v>0.47</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.79</v>
+        <v>0.06</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="AG5" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>32.47</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>1.9</v>
-      </c>
       <c r="AH5" s="4" t="n">
-        <v>2.87</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>15.42</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.6</v>
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_415.xlsx
+++ b/DATA_goal/Junction_Flooding_415.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
-    <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="19" max="19"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45096.50694444445</v>
+        <v>44782.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>22.58</v>
+        <v>0.861</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.542</v>
+        <v>2.491</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.221</v>
+        <v>0.076</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>47.493</v>
+        <v>1.32</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>39.284</v>
+        <v>2.861</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.769</v>
+        <v>0.002</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>58.8</v>
+        <v>1.492</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>27.341</v>
+        <v>0.701</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.61</v>
+        <v>0.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.881</v>
+        <v>0.367</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.828</v>
+        <v>3.983</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>19.728</v>
+        <v>1.944</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.673</v>
+        <v>1.138</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>17.67</v>
+        <v>0.723</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>24.849</v>
+        <v>1.566</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.79</v>
+        <v>0.64</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.779</v>
+        <v>0.961</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>261.617</v>
+        <v>7.973</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>49.202</v>
+        <v>3.143</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.31</v>
+        <v>0.999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>32.642</v>
+        <v>0.92</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.025</v>
+        <v>0.309</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.109</v>
+        <v>0.1</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>29.266</v>
+        <v>0.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.407</v>
+        <v>0.721</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.944</v>
+        <v>0.494</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.145</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.485</v>
+        <v>0.966</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.167</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>51.902</v>
+        <v>2.71</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.071</v>
+        <v>3.101</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.391</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45096.51388888889</v>
+        <v>44782.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>18.737</v>
+        <v>1.338</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.389</v>
+        <v>1.688</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.895</v>
+        <v>0.008</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>40.114</v>
+        <v>2.366</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>33.19</v>
+        <v>2.75</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.745</v>
+        <v>0.443</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>57.815</v>
+        <v>2.94</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>22.687</v>
+        <v>1.239</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.875</v>
+        <v>0.625</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14.899</v>
+        <v>0.681</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>16.13</v>
+        <v>2.152</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.865</v>
+        <v>1.631</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.711</v>
+        <v>0.631</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14.663</v>
+        <v>0.856</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>20.741</v>
+        <v>1.815</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.465</v>
+        <v>0.875</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.643</v>
+        <v>0.525</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.129</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>215.868</v>
+        <v>9.327</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>41.042</v>
+        <v>3.209</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.534</v>
+        <v>1.197</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>27.346</v>
+        <v>1.729</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.562</v>
+        <v>0.763</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.765</v>
+        <v>0.128</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>27.828</v>
+        <v>1.769</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.955</v>
+        <v>0.89</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.749</v>
+        <v>0.591</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.598</v>
+        <v>0.963</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>16.826</v>
+        <v>1.181</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.294</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>52.266</v>
+        <v>3.292</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.547</v>
+        <v>1.686</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.921</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45096.52083333334</v>
+        <v>44782.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.726</v>
+        <v>0.949</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.6</v>
+        <v>1.093</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.999</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>14.212</v>
+        <v>1.598</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>11.767</v>
+        <v>1.826</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.294</v>
+        <v>0.298</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>25.216</v>
+        <v>2.827</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.144</v>
+        <v>0.828</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.477</v>
+        <v>0.427</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.212</v>
+        <v>0.425</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.786</v>
+        <v>1.373</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.934</v>
+        <v>1.081</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.696</v>
+        <v>0.39</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.263</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.407</v>
+        <v>1.293</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.638</v>
+        <v>0.597</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.001</v>
+        <v>0.346</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.525</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>72.821</v>
+        <v>3.838</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>14.926</v>
+        <v>2.213</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.858</v>
+        <v>0.832</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9.797000000000001</v>
+        <v>1.257</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.309</v>
+        <v>0.539</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11.518</v>
+        <v>1.643</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.291</v>
+        <v>0.602</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.958</v>
+        <v>0.372</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.62</v>
+        <v>0.662</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.989</v>
+        <v>0.799</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.784</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>22.945</v>
+        <v>3.099</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.635</v>
+        <v>1.099</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.075</v>
+        <v>0.647</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45096.52777777778</v>
+        <v>44782.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.47</v>
+        <v>3.382</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.06</v>
+        <v>2.789</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.076</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.73</v>
+        <v>6.957</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.32</v>
+        <v>6.12</v>
       </c>
       <c r="G5" s="4" t="n">
+        <v>2.304</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>7.818</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>3.822</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>1.683</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>2.452</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>3.316</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>3.256</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>2.481</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>3.866</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2.165</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>32.466</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>7.219</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>2.546</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>4.637</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>2.406</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.338</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>3.031</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="M5" s="4" t="n">
+      <c r="AF5" s="4" t="n">
+        <v>7.228</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>2.868</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44782.86804398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="S6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="N5" s="4" t="n">
+      <c r="T6" s="4" t="n">
+        <v>15.42</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AE6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="O5" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>0.45</v>
+      <c r="AF6" s="4" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_415.xlsx
+++ b/DATA_goal/Junction_Flooding_415.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.84027777778</v>
+        <v>45096.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.861</v>
+        <v>22.58</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>2.491</v>
+        <v>15.542</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.076</v>
+        <v>4.221</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.32</v>
+        <v>47.493</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.861</v>
+        <v>39.284</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.002</v>
+        <v>17.769</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.492</v>
+        <v>58.8</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.701</v>
+        <v>27.341</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.38</v>
+        <v>11.61</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.367</v>
+        <v>17.881</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3.983</v>
+        <v>18.828</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.944</v>
+        <v>19.728</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.138</v>
+        <v>5.673</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.723</v>
+        <v>17.67</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.566</v>
+        <v>24.849</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.64</v>
+        <v>14.79</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.961</v>
+        <v>3.779</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>7.973</v>
+        <v>261.617</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.143</v>
+        <v>49.202</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.999</v>
+        <v>16.31</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.92</v>
+        <v>32.642</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.309</v>
+        <v>17.025</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.1</v>
+        <v>2.109</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.93</v>
+        <v>29.266</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.721</v>
+        <v>14.407</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.494</v>
+        <v>12.944</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.8070000000000001</v>
+        <v>15.145</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.966</v>
+        <v>19.485</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.167</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.71</v>
+        <v>51.902</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.101</v>
+        <v>9.071</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.612</v>
+        <v>20.391</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.84722222222</v>
+        <v>45096.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.338</v>
+        <v>18.737</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.688</v>
+        <v>13.389</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.008</v>
+        <v>1.895</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.366</v>
+        <v>40.114</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.75</v>
+        <v>33.19</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.443</v>
+        <v>14.745</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.94</v>
+        <v>57.815</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.239</v>
+        <v>22.687</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.625</v>
+        <v>9.875</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.681</v>
+        <v>14.899</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.152</v>
+        <v>16.13</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.631</v>
+        <v>16.865</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.631</v>
+        <v>4.711</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.856</v>
+        <v>14.663</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.815</v>
+        <v>20.741</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.875</v>
+        <v>12.465</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.525</v>
+        <v>1.643</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>1.129</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>9.327</v>
+        <v>215.868</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.209</v>
+        <v>41.042</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.197</v>
+        <v>13.534</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.729</v>
+        <v>27.346</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.763</v>
+        <v>14.562</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.128</v>
+        <v>1.765</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.769</v>
+        <v>27.828</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.89</v>
+        <v>11.955</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.591</v>
+        <v>10.749</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.963</v>
+        <v>12.598</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.181</v>
+        <v>16.826</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.292</v>
+        <v>52.266</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.686</v>
+        <v>7.547</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.966</v>
+        <v>16.921</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.85416666666</v>
+        <v>45096.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.949</v>
+        <v>6.726</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.093</v>
+        <v>4.6</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.999</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.598</v>
+        <v>14.212</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.826</v>
+        <v>11.767</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.298</v>
+        <v>5.294</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.827</v>
+        <v>25.216</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.828</v>
+        <v>8.144</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.427</v>
+        <v>3.477</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.425</v>
+        <v>5.212</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.373</v>
+        <v>5.786</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.081</v>
+        <v>5.934</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.39</v>
+        <v>1.696</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.5570000000000001</v>
+        <v>5.263</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.293</v>
+        <v>7.407</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.597</v>
+        <v>4.638</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.346</v>
+        <v>1.001</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.525</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>3.838</v>
+        <v>72.821</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.213</v>
+        <v>14.926</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.832</v>
+        <v>4.858</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.257</v>
+        <v>9.797000000000001</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.539</v>
+        <v>5.309</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.643</v>
+        <v>11.518</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.602</v>
+        <v>4.291</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.372</v>
+        <v>3.958</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.662</v>
+        <v>4.62</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.799</v>
+        <v>5.989</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.099</v>
+        <v>22.945</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.099</v>
+        <v>2.635</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.647</v>
+        <v>6.075</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.86111111111</v>
+        <v>45096.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.382</v>
+        <v>0.47</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.789</v>
+        <v>0.06</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.076</v>
+        <v>0.57</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>6.957</v>
+        <v>0.73</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.12</v>
+        <v>0.32</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.304</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>7.818</v>
+        <v>6.71</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.822</v>
+        <v>0.58</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.683</v>
+        <v>0.26</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.452</v>
+        <v>0.18</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.316</v>
+        <v>0.34</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.256</v>
+        <v>0</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.927</v>
+        <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.481</v>
+        <v>0.38</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.866</v>
+        <v>0.6</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.165</v>
+        <v>0.55</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.292</v>
+        <v>0.7</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>32.466</v>
+        <v>0</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>7.219</v>
+        <v>1.49</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.546</v>
+        <v>0.35</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>4.637</v>
+        <v>0.96</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.406</v>
+        <v>0.61</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.338</v>
+        <v>0.02</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.1</v>
+        <v>2.74</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.14</v>
+        <v>0.31</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.745</v>
+        <v>0.43</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.25</v>
+        <v>0.45</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.031</v>
+        <v>0.33</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>7.228</v>
+        <v>6.43</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.904</v>
+        <v>0.08</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.868</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>15.42</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.6</v>
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
